--- a/Output/Japan/FACT_Japan.xlsx
+++ b/Output/Japan/FACT_Japan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="105">
   <si>
     <t>CUSTOMERNUMBER</t>
   </si>
@@ -32,7 +32,7 @@
     <t>QUANTITY</t>
   </si>
   <si>
-    <t>SALES</t>
+    <t>BUYPRICE</t>
   </si>
   <si>
     <t>Osaka Souveniers Co.</t>
@@ -363,10 +363,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
@@ -374,19 +372,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.48828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.5625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.89453125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="15.484375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="8.62109375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="40.42578125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.3046875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="10.39453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="6.33203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="9.8515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -412,6 +410,1202 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>338433.27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>500292.66000000003</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>456149.19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>565624.9956</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>292347.48732</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>391252.40330400004</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>272365.2099</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>296997.26616</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>417891.516</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>540884.0521140001</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>339498.599076</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>259543.003314</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>242722.869795</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>381505.525128</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>367862.25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>394112.90016</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>434645.434314</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>603294.0900000001</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>544436.13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>544436.13</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="n">
+        <v>398.0</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>470863.68000000005</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="n">
+        <v>398.0</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>603294.0900000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="n">
+        <v>398.0</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>603294.0900000001</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="n">
+        <v>398.0</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>185000.868423</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="n">
+        <v>398.0</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>180723.36618</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="n">
+        <v>398.0</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>535813.43886</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="n">
+        <v>398.0</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>405649.06032000005</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="n">
+        <v>398.0</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>439982.37983700004</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="n">
+        <v>398.0</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>397291.23000000004</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="n">
+        <v>398.0</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>274395.80952</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="n">
+        <v>398.0</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>335274.06899700005</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="n">
+        <v>398.0</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>156510.672885</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="n">
+        <v>398.0</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>809296.9500000001</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="n">
+        <v>398.0</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>809296.9500000001</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="n">
+        <v>398.0</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>425397.3773490001</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="n">
+        <v>398.0</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>366849.893088</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="n">
+        <v>398.0</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>641757.76686</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="n">
+        <v>398.0</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>323718.78</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="n">
+        <v>398.0</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <v>576624.076875</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="n">
+        <v>398.0</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="G41" s="1" t="n">
+        <v>547011.16575</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="n">
+        <v>398.0</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="G42" s="1" t="n">
+        <v>425690.19570000004</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="n">
+        <v>398.0</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="G43" s="1" t="n">
+        <v>303172.937613</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="n">
+        <v>398.0</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="G44" s="1" t="n">
+        <v>588579.6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="n">
+        <v>398.0</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="G45" s="1" t="n">
+        <v>500292.66000000003</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="n">
+        <v>398.0</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G46" s="1" t="n">
+        <v>412005.72000000003</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="n">
+        <v>398.0</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="G47" s="1" t="n">
+        <v>311616.111975</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="n">
+        <v>398.0</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="G48" s="1" t="n">
+        <v>706295.52</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="n">
+        <v>398.0</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="G49" s="1" t="n">
+        <v>524202.234801</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="n">
+        <v>398.0</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="G50" s="1" t="n">
+        <v>544436.13</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="n">
+        <v>398.0</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="G51" s="1" t="n">
+        <v>206873.957808</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="n">
+        <v>398.0</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="G52" s="1" t="n">
+        <v>647437.56</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="n">
+        <v>398.0</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="G53" s="1" t="n">
+        <v>81510.91735500001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Output/Japan/FACT_Japan.xlsx
+++ b/Output/Japan/FACT_Japan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="105">
   <si>
     <t>CUSTOMERNUMBER</t>
   </si>
@@ -363,8 +363,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
@@ -429,7 +430,7 @@
       <c r="F2" t="n">
         <v>23.0</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="2" t="n">
         <v>338433.27</v>
       </c>
     </row>
@@ -452,7 +453,7 @@
       <c r="F3" s="0" t="n">
         <v>34.0</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="2" t="n">
         <v>500292.66000000003</v>
       </c>
     </row>
@@ -475,7 +476,7 @@
       <c r="F4" s="0" t="n">
         <v>31.0</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="2" t="n">
         <v>456149.19</v>
       </c>
     </row>
@@ -498,7 +499,7 @@
       <c r="F5" s="0" t="n">
         <v>50.0</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="2" t="n">
         <v>565624.9956</v>
       </c>
     </row>
@@ -521,7 +522,7 @@
       <c r="F6" s="0" t="n">
         <v>40.0</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="2" t="n">
         <v>292347.48732</v>
       </c>
     </row>
@@ -544,7 +545,7 @@
       <c r="F7" s="0" t="n">
         <v>27.0</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="2" t="n">
         <v>391252.40330400004</v>
       </c>
     </row>
@@ -567,7 +568,7 @@
       <c r="F8" s="0" t="n">
         <v>30.0</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="2" t="n">
         <v>272365.2099</v>
       </c>
     </row>
@@ -590,7 +591,7 @@
       <c r="F9" s="0" t="n">
         <v>29.0</v>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="G9" s="2" t="n">
         <v>296997.26616</v>
       </c>
     </row>
@@ -613,7 +614,7 @@
       <c r="F10" s="0" t="n">
         <v>40.0</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="G10" s="2" t="n">
         <v>417891.516</v>
       </c>
     </row>
@@ -636,7 +637,7 @@
       <c r="F11" s="0" t="n">
         <v>46.0</v>
       </c>
-      <c r="G11" s="1" t="n">
+      <c r="G11" s="2" t="n">
         <v>540884.0521140001</v>
       </c>
     </row>
@@ -659,7 +660,7 @@
       <c r="F12" s="0" t="n">
         <v>39.0</v>
       </c>
-      <c r="G12" s="1" t="n">
+      <c r="G12" s="2" t="n">
         <v>339498.599076</v>
       </c>
     </row>
@@ -682,7 +683,7 @@
       <c r="F13" s="0" t="n">
         <v>43.0</v>
       </c>
-      <c r="G13" s="1" t="n">
+      <c r="G13" s="2" t="n">
         <v>259543.003314</v>
       </c>
     </row>
@@ -705,7 +706,7 @@
       <c r="F14" s="0" t="n">
         <v>21.0</v>
       </c>
-      <c r="G14" s="1" t="n">
+      <c r="G14" s="2" t="n">
         <v>242722.869795</v>
       </c>
     </row>
@@ -728,7 +729,7 @@
       <c r="F15" s="0" t="n">
         <v>26.0</v>
       </c>
-      <c r="G15" s="1" t="n">
+      <c r="G15" s="2" t="n">
         <v>381505.525128</v>
       </c>
     </row>
@@ -751,7 +752,7 @@
       <c r="F16" s="0" t="n">
         <v>25.0</v>
       </c>
-      <c r="G16" s="1" t="n">
+      <c r="G16" s="2" t="n">
         <v>367862.25</v>
       </c>
     </row>
@@ -774,7 +775,7 @@
       <c r="F17" s="0" t="n">
         <v>31.0</v>
       </c>
-      <c r="G17" s="1" t="n">
+      <c r="G17" s="2" t="n">
         <v>394112.90016</v>
       </c>
     </row>
@@ -797,7 +798,7 @@
       <c r="F18" s="0" t="n">
         <v>42.0</v>
       </c>
-      <c r="G18" s="1" t="n">
+      <c r="G18" s="2" t="n">
         <v>434645.434314</v>
       </c>
     </row>
@@ -820,7 +821,7 @@
       <c r="F19" s="0" t="n">
         <v>41.0</v>
       </c>
-      <c r="G19" s="1" t="n">
+      <c r="G19" s="2" t="n">
         <v>603294.0900000001</v>
       </c>
     </row>
@@ -843,7 +844,7 @@
       <c r="F20" s="0" t="n">
         <v>37.0</v>
       </c>
-      <c r="G20" s="1" t="n">
+      <c r="G20" s="2" t="n">
         <v>544436.13</v>
       </c>
     </row>
@@ -866,7 +867,7 @@
       <c r="F21" s="0" t="n">
         <v>37.0</v>
       </c>
-      <c r="G21" s="1" t="n">
+      <c r="G21" s="2" t="n">
         <v>544436.13</v>
       </c>
     </row>
@@ -889,7 +890,7 @@
       <c r="F22" s="0" t="n">
         <v>32.0</v>
       </c>
-      <c r="G22" s="1" t="n">
+      <c r="G22" s="2" t="n">
         <v>470863.68000000005</v>
       </c>
     </row>
@@ -912,7 +913,7 @@
       <c r="F23" s="0" t="n">
         <v>41.0</v>
       </c>
-      <c r="G23" s="1" t="n">
+      <c r="G23" s="2" t="n">
         <v>603294.0900000001</v>
       </c>
     </row>
@@ -935,7 +936,7 @@
       <c r="F24" s="0" t="n">
         <v>41.0</v>
       </c>
-      <c r="G24" s="1" t="n">
+      <c r="G24" s="2" t="n">
         <v>603294.0900000001</v>
       </c>
     </row>
@@ -958,7 +959,7 @@
       <c r="F25" s="0" t="n">
         <v>21.0</v>
       </c>
-      <c r="G25" s="1" t="n">
+      <c r="G25" s="2" t="n">
         <v>185000.868423</v>
       </c>
     </row>
@@ -981,7 +982,7 @@
       <c r="F26" s="0" t="n">
         <v>20.0</v>
       </c>
-      <c r="G26" s="1" t="n">
+      <c r="G26" s="2" t="n">
         <v>180723.36618</v>
       </c>
     </row>
@@ -1004,7 +1005,7 @@
       <c r="F27" s="0" t="n">
         <v>45.0</v>
       </c>
-      <c r="G27" s="1" t="n">
+      <c r="G27" s="2" t="n">
         <v>535813.43886</v>
       </c>
     </row>
@@ -1027,7 +1028,7 @@
       <c r="F28" s="0" t="n">
         <v>40.0</v>
       </c>
-      <c r="G28" s="1" t="n">
+      <c r="G28" s="2" t="n">
         <v>405649.06032000005</v>
       </c>
     </row>
@@ -1050,7 +1051,7 @@
       <c r="F29" s="0" t="n">
         <v>39.0</v>
       </c>
-      <c r="G29" s="1" t="n">
+      <c r="G29" s="2" t="n">
         <v>439982.37983700004</v>
       </c>
     </row>
@@ -1073,7 +1074,7 @@
       <c r="F30" s="0" t="n">
         <v>27.0</v>
       </c>
-      <c r="G30" s="1" t="n">
+      <c r="G30" s="2" t="n">
         <v>397291.23000000004</v>
       </c>
     </row>
@@ -1096,7 +1097,7 @@
       <c r="F31" s="0" t="n">
         <v>30.0</v>
       </c>
-      <c r="G31" s="1" t="n">
+      <c r="G31" s="2" t="n">
         <v>274395.80952</v>
       </c>
     </row>
@@ -1119,7 +1120,7 @@
       <c r="F32" s="0" t="n">
         <v>27.0</v>
       </c>
-      <c r="G32" s="1" t="n">
+      <c r="G32" s="2" t="n">
         <v>335274.06899700005</v>
       </c>
     </row>
@@ -1142,7 +1143,7 @@
       <c r="F33" s="0" t="n">
         <v>21.0</v>
       </c>
-      <c r="G33" s="1" t="n">
+      <c r="G33" s="2" t="n">
         <v>156510.672885</v>
       </c>
     </row>
@@ -1165,7 +1166,7 @@
       <c r="F34" s="0" t="n">
         <v>55.0</v>
       </c>
-      <c r="G34" s="1" t="n">
+      <c r="G34" s="2" t="n">
         <v>809296.9500000001</v>
       </c>
     </row>
@@ -1188,7 +1189,7 @@
       <c r="F35" s="0" t="n">
         <v>55.0</v>
       </c>
-      <c r="G35" s="1" t="n">
+      <c r="G35" s="2" t="n">
         <v>809296.9500000001</v>
       </c>
     </row>
@@ -1211,7 +1212,7 @@
       <c r="F36" s="0" t="n">
         <v>29.0</v>
       </c>
-      <c r="G36" s="1" t="n">
+      <c r="G36" s="2" t="n">
         <v>425397.3773490001</v>
       </c>
     </row>
@@ -1234,7 +1235,7 @@
       <c r="F37" s="0" t="n">
         <v>42.0</v>
       </c>
-      <c r="G37" s="1" t="n">
+      <c r="G37" s="2" t="n">
         <v>366849.893088</v>
       </c>
     </row>
@@ -1257,7 +1258,7 @@
       <c r="F38" s="0" t="n">
         <v>45.0</v>
       </c>
-      <c r="G38" s="1" t="n">
+      <c r="G38" s="2" t="n">
         <v>641757.76686</v>
       </c>
     </row>
@@ -1280,7 +1281,7 @@
       <c r="F39" s="0" t="n">
         <v>22.0</v>
       </c>
-      <c r="G39" s="1" t="n">
+      <c r="G39" s="2" t="n">
         <v>323718.78</v>
       </c>
     </row>
@@ -1303,7 +1304,7 @@
       <c r="F40" s="0" t="n">
         <v>55.0</v>
       </c>
-      <c r="G40" s="1" t="n">
+      <c r="G40" s="2" t="n">
         <v>576624.076875</v>
       </c>
     </row>
@@ -1326,7 +1327,7 @@
       <c r="F41" s="0" t="n">
         <v>50.0</v>
       </c>
-      <c r="G41" s="1" t="n">
+      <c r="G41" s="2" t="n">
         <v>547011.16575</v>
       </c>
     </row>
@@ -1349,7 +1350,7 @@
       <c r="F42" s="0" t="n">
         <v>50.0</v>
       </c>
-      <c r="G42" s="1" t="n">
+      <c r="G42" s="2" t="n">
         <v>425690.19570000004</v>
       </c>
     </row>
@@ -1372,7 +1373,7 @@
       <c r="F43" s="0" t="n">
         <v>27.0</v>
       </c>
-      <c r="G43" s="1" t="n">
+      <c r="G43" s="2" t="n">
         <v>303172.937613</v>
       </c>
     </row>
@@ -1395,7 +1396,7 @@
       <c r="F44" s="0" t="n">
         <v>40.0</v>
       </c>
-      <c r="G44" s="1" t="n">
+      <c r="G44" s="2" t="n">
         <v>588579.6</v>
       </c>
     </row>
@@ -1418,7 +1419,7 @@
       <c r="F45" s="0" t="n">
         <v>34.0</v>
       </c>
-      <c r="G45" s="1" t="n">
+      <c r="G45" s="2" t="n">
         <v>500292.66000000003</v>
       </c>
     </row>
@@ -1441,7 +1442,7 @@
       <c r="F46" s="0" t="n">
         <v>28.0</v>
       </c>
-      <c r="G46" s="1" t="n">
+      <c r="G46" s="2" t="n">
         <v>412005.72000000003</v>
       </c>
     </row>
@@ -1464,7 +1465,7 @@
       <c r="F47" s="0" t="n">
         <v>25.0</v>
       </c>
-      <c r="G47" s="1" t="n">
+      <c r="G47" s="2" t="n">
         <v>311616.111975</v>
       </c>
     </row>
@@ -1487,7 +1488,7 @@
       <c r="F48" s="0" t="n">
         <v>48.0</v>
       </c>
-      <c r="G48" s="1" t="n">
+      <c r="G48" s="2" t="n">
         <v>706295.52</v>
       </c>
     </row>
@@ -1510,7 +1511,7 @@
       <c r="F49" s="0" t="n">
         <v>41.0</v>
       </c>
-      <c r="G49" s="1" t="n">
+      <c r="G49" s="2" t="n">
         <v>524202.234801</v>
       </c>
     </row>
@@ -1533,7 +1534,7 @@
       <c r="F50" s="0" t="n">
         <v>37.0</v>
       </c>
-      <c r="G50" s="1" t="n">
+      <c r="G50" s="2" t="n">
         <v>544436.13</v>
       </c>
     </row>
@@ -1556,7 +1557,7 @@
       <c r="F51" s="0" t="n">
         <v>24.0</v>
       </c>
-      <c r="G51" s="1" t="n">
+      <c r="G51" s="2" t="n">
         <v>206873.957808</v>
       </c>
     </row>
@@ -1579,7 +1580,7 @@
       <c r="F52" s="0" t="n">
         <v>44.0</v>
       </c>
-      <c r="G52" s="1" t="n">
+      <c r="G52" s="2" t="n">
         <v>647437.56</v>
       </c>
     </row>
@@ -1602,7 +1603,7 @@
       <c r="F53" s="0" t="n">
         <v>15.0</v>
       </c>
-      <c r="G53" s="1" t="n">
+      <c r="G53" s="2" t="n">
         <v>81510.91735500001</v>
       </c>
     </row>

--- a/Output/Japan/FACT_Japan.xlsx
+++ b/Output/Japan/FACT_Japan.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="FACT_JAPAN" r:id="rId3" sheetId="1"/>
+    <sheet name="FACT_Japan" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="105">
   <si>
     <t>CUSTOMERNUMBER</t>
   </si>
@@ -363,8 +363,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
@@ -430,7 +432,7 @@
       <c r="F2" t="n">
         <v>23.0</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="4" t="n">
         <v>338433.27</v>
       </c>
     </row>
@@ -453,7 +455,7 @@
       <c r="F3" s="0" t="n">
         <v>34.0</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="4" t="n">
         <v>500292.66000000003</v>
       </c>
     </row>
@@ -476,7 +478,7 @@
       <c r="F4" s="0" t="n">
         <v>31.0</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="4" t="n">
         <v>456149.19</v>
       </c>
     </row>
@@ -499,7 +501,7 @@
       <c r="F5" s="0" t="n">
         <v>50.0</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="4" t="n">
         <v>565624.9956</v>
       </c>
     </row>
@@ -522,7 +524,7 @@
       <c r="F6" s="0" t="n">
         <v>40.0</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="4" t="n">
         <v>292347.48732</v>
       </c>
     </row>
@@ -545,7 +547,7 @@
       <c r="F7" s="0" t="n">
         <v>27.0</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="4" t="n">
         <v>391252.40330400004</v>
       </c>
     </row>
@@ -568,7 +570,7 @@
       <c r="F8" s="0" t="n">
         <v>30.0</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="4" t="n">
         <v>272365.2099</v>
       </c>
     </row>
@@ -591,7 +593,7 @@
       <c r="F9" s="0" t="n">
         <v>29.0</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="4" t="n">
         <v>296997.26616</v>
       </c>
     </row>
@@ -614,7 +616,7 @@
       <c r="F10" s="0" t="n">
         <v>40.0</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="4" t="n">
         <v>417891.516</v>
       </c>
     </row>
@@ -637,7 +639,7 @@
       <c r="F11" s="0" t="n">
         <v>46.0</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="4" t="n">
         <v>540884.0521140001</v>
       </c>
     </row>
@@ -660,7 +662,7 @@
       <c r="F12" s="0" t="n">
         <v>39.0</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="G12" s="4" t="n">
         <v>339498.599076</v>
       </c>
     </row>
@@ -683,7 +685,7 @@
       <c r="F13" s="0" t="n">
         <v>43.0</v>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="G13" s="4" t="n">
         <v>259543.003314</v>
       </c>
     </row>
@@ -706,7 +708,7 @@
       <c r="F14" s="0" t="n">
         <v>21.0</v>
       </c>
-      <c r="G14" s="2" t="n">
+      <c r="G14" s="4" t="n">
         <v>242722.869795</v>
       </c>
     </row>
@@ -729,7 +731,7 @@
       <c r="F15" s="0" t="n">
         <v>26.0</v>
       </c>
-      <c r="G15" s="2" t="n">
+      <c r="G15" s="4" t="n">
         <v>381505.525128</v>
       </c>
     </row>
@@ -752,7 +754,7 @@
       <c r="F16" s="0" t="n">
         <v>25.0</v>
       </c>
-      <c r="G16" s="2" t="n">
+      <c r="G16" s="4" t="n">
         <v>367862.25</v>
       </c>
     </row>
@@ -775,7 +777,7 @@
       <c r="F17" s="0" t="n">
         <v>31.0</v>
       </c>
-      <c r="G17" s="2" t="n">
+      <c r="G17" s="4" t="n">
         <v>394112.90016</v>
       </c>
     </row>
@@ -798,7 +800,7 @@
       <c r="F18" s="0" t="n">
         <v>42.0</v>
       </c>
-      <c r="G18" s="2" t="n">
+      <c r="G18" s="4" t="n">
         <v>434645.434314</v>
       </c>
     </row>
@@ -821,7 +823,7 @@
       <c r="F19" s="0" t="n">
         <v>41.0</v>
       </c>
-      <c r="G19" s="2" t="n">
+      <c r="G19" s="4" t="n">
         <v>603294.0900000001</v>
       </c>
     </row>
@@ -844,7 +846,7 @@
       <c r="F20" s="0" t="n">
         <v>37.0</v>
       </c>
-      <c r="G20" s="2" t="n">
+      <c r="G20" s="4" t="n">
         <v>544436.13</v>
       </c>
     </row>
@@ -867,7 +869,7 @@
       <c r="F21" s="0" t="n">
         <v>37.0</v>
       </c>
-      <c r="G21" s="2" t="n">
+      <c r="G21" s="4" t="n">
         <v>544436.13</v>
       </c>
     </row>
@@ -890,7 +892,7 @@
       <c r="F22" s="0" t="n">
         <v>32.0</v>
       </c>
-      <c r="G22" s="2" t="n">
+      <c r="G22" s="4" t="n">
         <v>470863.68000000005</v>
       </c>
     </row>
@@ -913,7 +915,7 @@
       <c r="F23" s="0" t="n">
         <v>41.0</v>
       </c>
-      <c r="G23" s="2" t="n">
+      <c r="G23" s="4" t="n">
         <v>603294.0900000001</v>
       </c>
     </row>
@@ -936,7 +938,7 @@
       <c r="F24" s="0" t="n">
         <v>41.0</v>
       </c>
-      <c r="G24" s="2" t="n">
+      <c r="G24" s="4" t="n">
         <v>603294.0900000001</v>
       </c>
     </row>
@@ -959,7 +961,7 @@
       <c r="F25" s="0" t="n">
         <v>21.0</v>
       </c>
-      <c r="G25" s="2" t="n">
+      <c r="G25" s="4" t="n">
         <v>185000.868423</v>
       </c>
     </row>
@@ -982,7 +984,7 @@
       <c r="F26" s="0" t="n">
         <v>20.0</v>
       </c>
-      <c r="G26" s="2" t="n">
+      <c r="G26" s="4" t="n">
         <v>180723.36618</v>
       </c>
     </row>
@@ -1005,7 +1007,7 @@
       <c r="F27" s="0" t="n">
         <v>45.0</v>
       </c>
-      <c r="G27" s="2" t="n">
+      <c r="G27" s="4" t="n">
         <v>535813.43886</v>
       </c>
     </row>
@@ -1028,7 +1030,7 @@
       <c r="F28" s="0" t="n">
         <v>40.0</v>
       </c>
-      <c r="G28" s="2" t="n">
+      <c r="G28" s="4" t="n">
         <v>405649.06032000005</v>
       </c>
     </row>
@@ -1051,7 +1053,7 @@
       <c r="F29" s="0" t="n">
         <v>39.0</v>
       </c>
-      <c r="G29" s="2" t="n">
+      <c r="G29" s="4" t="n">
         <v>439982.37983700004</v>
       </c>
     </row>
@@ -1074,7 +1076,7 @@
       <c r="F30" s="0" t="n">
         <v>27.0</v>
       </c>
-      <c r="G30" s="2" t="n">
+      <c r="G30" s="4" t="n">
         <v>397291.23000000004</v>
       </c>
     </row>
@@ -1097,7 +1099,7 @@
       <c r="F31" s="0" t="n">
         <v>30.0</v>
       </c>
-      <c r="G31" s="2" t="n">
+      <c r="G31" s="4" t="n">
         <v>274395.80952</v>
       </c>
     </row>
@@ -1120,7 +1122,7 @@
       <c r="F32" s="0" t="n">
         <v>27.0</v>
       </c>
-      <c r="G32" s="2" t="n">
+      <c r="G32" s="4" t="n">
         <v>335274.06899700005</v>
       </c>
     </row>
@@ -1143,7 +1145,7 @@
       <c r="F33" s="0" t="n">
         <v>21.0</v>
       </c>
-      <c r="G33" s="2" t="n">
+      <c r="G33" s="4" t="n">
         <v>156510.672885</v>
       </c>
     </row>
@@ -1166,7 +1168,7 @@
       <c r="F34" s="0" t="n">
         <v>55.0</v>
       </c>
-      <c r="G34" s="2" t="n">
+      <c r="G34" s="4" t="n">
         <v>809296.9500000001</v>
       </c>
     </row>
@@ -1189,7 +1191,7 @@
       <c r="F35" s="0" t="n">
         <v>55.0</v>
       </c>
-      <c r="G35" s="2" t="n">
+      <c r="G35" s="4" t="n">
         <v>809296.9500000001</v>
       </c>
     </row>
@@ -1212,7 +1214,7 @@
       <c r="F36" s="0" t="n">
         <v>29.0</v>
       </c>
-      <c r="G36" s="2" t="n">
+      <c r="G36" s="4" t="n">
         <v>425397.3773490001</v>
       </c>
     </row>
@@ -1235,7 +1237,7 @@
       <c r="F37" s="0" t="n">
         <v>42.0</v>
       </c>
-      <c r="G37" s="2" t="n">
+      <c r="G37" s="4" t="n">
         <v>366849.893088</v>
       </c>
     </row>
@@ -1258,7 +1260,7 @@
       <c r="F38" s="0" t="n">
         <v>45.0</v>
       </c>
-      <c r="G38" s="2" t="n">
+      <c r="G38" s="4" t="n">
         <v>641757.76686</v>
       </c>
     </row>
@@ -1281,7 +1283,7 @@
       <c r="F39" s="0" t="n">
         <v>22.0</v>
       </c>
-      <c r="G39" s="2" t="n">
+      <c r="G39" s="4" t="n">
         <v>323718.78</v>
       </c>
     </row>
@@ -1304,7 +1306,7 @@
       <c r="F40" s="0" t="n">
         <v>55.0</v>
       </c>
-      <c r="G40" s="2" t="n">
+      <c r="G40" s="4" t="n">
         <v>576624.076875</v>
       </c>
     </row>
@@ -1327,7 +1329,7 @@
       <c r="F41" s="0" t="n">
         <v>50.0</v>
       </c>
-      <c r="G41" s="2" t="n">
+      <c r="G41" s="4" t="n">
         <v>547011.16575</v>
       </c>
     </row>
@@ -1350,7 +1352,7 @@
       <c r="F42" s="0" t="n">
         <v>50.0</v>
       </c>
-      <c r="G42" s="2" t="n">
+      <c r="G42" s="4" t="n">
         <v>425690.19570000004</v>
       </c>
     </row>
@@ -1373,7 +1375,7 @@
       <c r="F43" s="0" t="n">
         <v>27.0</v>
       </c>
-      <c r="G43" s="2" t="n">
+      <c r="G43" s="4" t="n">
         <v>303172.937613</v>
       </c>
     </row>
@@ -1396,7 +1398,7 @@
       <c r="F44" s="0" t="n">
         <v>40.0</v>
       </c>
-      <c r="G44" s="2" t="n">
+      <c r="G44" s="4" t="n">
         <v>588579.6</v>
       </c>
     </row>
@@ -1419,7 +1421,7 @@
       <c r="F45" s="0" t="n">
         <v>34.0</v>
       </c>
-      <c r="G45" s="2" t="n">
+      <c r="G45" s="4" t="n">
         <v>500292.66000000003</v>
       </c>
     </row>
@@ -1442,7 +1444,7 @@
       <c r="F46" s="0" t="n">
         <v>28.0</v>
       </c>
-      <c r="G46" s="2" t="n">
+      <c r="G46" s="4" t="n">
         <v>412005.72000000003</v>
       </c>
     </row>
@@ -1465,7 +1467,7 @@
       <c r="F47" s="0" t="n">
         <v>25.0</v>
       </c>
-      <c r="G47" s="2" t="n">
+      <c r="G47" s="4" t="n">
         <v>311616.111975</v>
       </c>
     </row>
@@ -1488,7 +1490,7 @@
       <c r="F48" s="0" t="n">
         <v>48.0</v>
       </c>
-      <c r="G48" s="2" t="n">
+      <c r="G48" s="4" t="n">
         <v>706295.52</v>
       </c>
     </row>
@@ -1511,7 +1513,7 @@
       <c r="F49" s="0" t="n">
         <v>41.0</v>
       </c>
-      <c r="G49" s="2" t="n">
+      <c r="G49" s="4" t="n">
         <v>524202.234801</v>
       </c>
     </row>
@@ -1534,7 +1536,7 @@
       <c r="F50" s="0" t="n">
         <v>37.0</v>
       </c>
-      <c r="G50" s="2" t="n">
+      <c r="G50" s="4" t="n">
         <v>544436.13</v>
       </c>
     </row>
@@ -1557,7 +1559,7 @@
       <c r="F51" s="0" t="n">
         <v>24.0</v>
       </c>
-      <c r="G51" s="2" t="n">
+      <c r="G51" s="4" t="n">
         <v>206873.957808</v>
       </c>
     </row>
@@ -1580,7 +1582,7 @@
       <c r="F52" s="0" t="n">
         <v>44.0</v>
       </c>
-      <c r="G52" s="2" t="n">
+      <c r="G52" s="4" t="n">
         <v>647437.56</v>
       </c>
     </row>
@@ -1603,7 +1605,7 @@
       <c r="F53" s="0" t="n">
         <v>15.0</v>
       </c>
-      <c r="G53" s="2" t="n">
+      <c r="G53" s="4" t="n">
         <v>81510.91735500001</v>
       </c>
     </row>

--- a/Output/Japan/FACT_Japan.xlsx
+++ b/Output/Japan/FACT_Japan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="105">
   <si>
     <t>CUSTOMERNUMBER</t>
   </si>
@@ -363,11 +363,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
@@ -432,7 +429,7 @@
       <c r="F2" t="n">
         <v>23.0</v>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="1" t="n">
         <v>338433.27</v>
       </c>
     </row>
@@ -455,7 +452,7 @@
       <c r="F3" s="0" t="n">
         <v>34.0</v>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="1" t="n">
         <v>500292.66000000003</v>
       </c>
     </row>
@@ -478,7 +475,7 @@
       <c r="F4" s="0" t="n">
         <v>31.0</v>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="1" t="n">
         <v>456149.19</v>
       </c>
     </row>
@@ -501,7 +498,7 @@
       <c r="F5" s="0" t="n">
         <v>50.0</v>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="1" t="n">
         <v>565624.9956</v>
       </c>
     </row>
@@ -524,7 +521,7 @@
       <c r="F6" s="0" t="n">
         <v>40.0</v>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="1" t="n">
         <v>292347.48732</v>
       </c>
     </row>
@@ -547,7 +544,7 @@
       <c r="F7" s="0" t="n">
         <v>27.0</v>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="1" t="n">
         <v>391252.40330400004</v>
       </c>
     </row>
@@ -570,7 +567,7 @@
       <c r="F8" s="0" t="n">
         <v>30.0</v>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="1" t="n">
         <v>272365.2099</v>
       </c>
     </row>
@@ -593,7 +590,7 @@
       <c r="F9" s="0" t="n">
         <v>29.0</v>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="1" t="n">
         <v>296997.26616</v>
       </c>
     </row>
@@ -616,7 +613,7 @@
       <c r="F10" s="0" t="n">
         <v>40.0</v>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="G10" s="1" t="n">
         <v>417891.516</v>
       </c>
     </row>
@@ -639,7 +636,7 @@
       <c r="F11" s="0" t="n">
         <v>46.0</v>
       </c>
-      <c r="G11" s="4" t="n">
+      <c r="G11" s="1" t="n">
         <v>540884.0521140001</v>
       </c>
     </row>
@@ -662,7 +659,7 @@
       <c r="F12" s="0" t="n">
         <v>39.0</v>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="G12" s="1" t="n">
         <v>339498.599076</v>
       </c>
     </row>
@@ -685,7 +682,7 @@
       <c r="F13" s="0" t="n">
         <v>43.0</v>
       </c>
-      <c r="G13" s="4" t="n">
+      <c r="G13" s="1" t="n">
         <v>259543.003314</v>
       </c>
     </row>
@@ -708,7 +705,7 @@
       <c r="F14" s="0" t="n">
         <v>21.0</v>
       </c>
-      <c r="G14" s="4" t="n">
+      <c r="G14" s="1" t="n">
         <v>242722.869795</v>
       </c>
     </row>
@@ -731,7 +728,7 @@
       <c r="F15" s="0" t="n">
         <v>26.0</v>
       </c>
-      <c r="G15" s="4" t="n">
+      <c r="G15" s="1" t="n">
         <v>381505.525128</v>
       </c>
     </row>
@@ -754,7 +751,7 @@
       <c r="F16" s="0" t="n">
         <v>25.0</v>
       </c>
-      <c r="G16" s="4" t="n">
+      <c r="G16" s="1" t="n">
         <v>367862.25</v>
       </c>
     </row>
@@ -777,7 +774,7 @@
       <c r="F17" s="0" t="n">
         <v>31.0</v>
       </c>
-      <c r="G17" s="4" t="n">
+      <c r="G17" s="1" t="n">
         <v>394112.90016</v>
       </c>
     </row>
@@ -800,7 +797,7 @@
       <c r="F18" s="0" t="n">
         <v>42.0</v>
       </c>
-      <c r="G18" s="4" t="n">
+      <c r="G18" s="1" t="n">
         <v>434645.434314</v>
       </c>
     </row>
@@ -823,7 +820,7 @@
       <c r="F19" s="0" t="n">
         <v>41.0</v>
       </c>
-      <c r="G19" s="4" t="n">
+      <c r="G19" s="1" t="n">
         <v>603294.0900000001</v>
       </c>
     </row>
@@ -846,7 +843,7 @@
       <c r="F20" s="0" t="n">
         <v>37.0</v>
       </c>
-      <c r="G20" s="4" t="n">
+      <c r="G20" s="1" t="n">
         <v>544436.13</v>
       </c>
     </row>
@@ -869,7 +866,7 @@
       <c r="F21" s="0" t="n">
         <v>37.0</v>
       </c>
-      <c r="G21" s="4" t="n">
+      <c r="G21" s="1" t="n">
         <v>544436.13</v>
       </c>
     </row>
@@ -892,7 +889,7 @@
       <c r="F22" s="0" t="n">
         <v>32.0</v>
       </c>
-      <c r="G22" s="4" t="n">
+      <c r="G22" s="1" t="n">
         <v>470863.68000000005</v>
       </c>
     </row>
@@ -915,7 +912,7 @@
       <c r="F23" s="0" t="n">
         <v>41.0</v>
       </c>
-      <c r="G23" s="4" t="n">
+      <c r="G23" s="1" t="n">
         <v>603294.0900000001</v>
       </c>
     </row>
@@ -938,7 +935,7 @@
       <c r="F24" s="0" t="n">
         <v>41.0</v>
       </c>
-      <c r="G24" s="4" t="n">
+      <c r="G24" s="1" t="n">
         <v>603294.0900000001</v>
       </c>
     </row>
@@ -961,7 +958,7 @@
       <c r="F25" s="0" t="n">
         <v>21.0</v>
       </c>
-      <c r="G25" s="4" t="n">
+      <c r="G25" s="1" t="n">
         <v>185000.868423</v>
       </c>
     </row>
@@ -984,7 +981,7 @@
       <c r="F26" s="0" t="n">
         <v>20.0</v>
       </c>
-      <c r="G26" s="4" t="n">
+      <c r="G26" s="1" t="n">
         <v>180723.36618</v>
       </c>
     </row>
@@ -1007,7 +1004,7 @@
       <c r="F27" s="0" t="n">
         <v>45.0</v>
       </c>
-      <c r="G27" s="4" t="n">
+      <c r="G27" s="1" t="n">
         <v>535813.43886</v>
       </c>
     </row>
@@ -1030,7 +1027,7 @@
       <c r="F28" s="0" t="n">
         <v>40.0</v>
       </c>
-      <c r="G28" s="4" t="n">
+      <c r="G28" s="1" t="n">
         <v>405649.06032000005</v>
       </c>
     </row>
@@ -1053,7 +1050,7 @@
       <c r="F29" s="0" t="n">
         <v>39.0</v>
       </c>
-      <c r="G29" s="4" t="n">
+      <c r="G29" s="1" t="n">
         <v>439982.37983700004</v>
       </c>
     </row>
@@ -1076,7 +1073,7 @@
       <c r="F30" s="0" t="n">
         <v>27.0</v>
       </c>
-      <c r="G30" s="4" t="n">
+      <c r="G30" s="1" t="n">
         <v>397291.23000000004</v>
       </c>
     </row>
@@ -1099,7 +1096,7 @@
       <c r="F31" s="0" t="n">
         <v>30.0</v>
       </c>
-      <c r="G31" s="4" t="n">
+      <c r="G31" s="1" t="n">
         <v>274395.80952</v>
       </c>
     </row>
@@ -1122,7 +1119,7 @@
       <c r="F32" s="0" t="n">
         <v>27.0</v>
       </c>
-      <c r="G32" s="4" t="n">
+      <c r="G32" s="1" t="n">
         <v>335274.06899700005</v>
       </c>
     </row>
@@ -1145,7 +1142,7 @@
       <c r="F33" s="0" t="n">
         <v>21.0</v>
       </c>
-      <c r="G33" s="4" t="n">
+      <c r="G33" s="1" t="n">
         <v>156510.672885</v>
       </c>
     </row>
@@ -1168,7 +1165,7 @@
       <c r="F34" s="0" t="n">
         <v>55.0</v>
       </c>
-      <c r="G34" s="4" t="n">
+      <c r="G34" s="1" t="n">
         <v>809296.9500000001</v>
       </c>
     </row>
@@ -1191,7 +1188,7 @@
       <c r="F35" s="0" t="n">
         <v>55.0</v>
       </c>
-      <c r="G35" s="4" t="n">
+      <c r="G35" s="1" t="n">
         <v>809296.9500000001</v>
       </c>
     </row>
@@ -1214,7 +1211,7 @@
       <c r="F36" s="0" t="n">
         <v>29.0</v>
       </c>
-      <c r="G36" s="4" t="n">
+      <c r="G36" s="1" t="n">
         <v>425397.3773490001</v>
       </c>
     </row>
@@ -1237,7 +1234,7 @@
       <c r="F37" s="0" t="n">
         <v>42.0</v>
       </c>
-      <c r="G37" s="4" t="n">
+      <c r="G37" s="1" t="n">
         <v>366849.893088</v>
       </c>
     </row>
@@ -1260,7 +1257,7 @@
       <c r="F38" s="0" t="n">
         <v>45.0</v>
       </c>
-      <c r="G38" s="4" t="n">
+      <c r="G38" s="1" t="n">
         <v>641757.76686</v>
       </c>
     </row>
@@ -1283,7 +1280,7 @@
       <c r="F39" s="0" t="n">
         <v>22.0</v>
       </c>
-      <c r="G39" s="4" t="n">
+      <c r="G39" s="1" t="n">
         <v>323718.78</v>
       </c>
     </row>
@@ -1306,7 +1303,7 @@
       <c r="F40" s="0" t="n">
         <v>55.0</v>
       </c>
-      <c r="G40" s="4" t="n">
+      <c r="G40" s="1" t="n">
         <v>576624.076875</v>
       </c>
     </row>
@@ -1329,7 +1326,7 @@
       <c r="F41" s="0" t="n">
         <v>50.0</v>
       </c>
-      <c r="G41" s="4" t="n">
+      <c r="G41" s="1" t="n">
         <v>547011.16575</v>
       </c>
     </row>
@@ -1352,7 +1349,7 @@
       <c r="F42" s="0" t="n">
         <v>50.0</v>
       </c>
-      <c r="G42" s="4" t="n">
+      <c r="G42" s="1" t="n">
         <v>425690.19570000004</v>
       </c>
     </row>
@@ -1375,7 +1372,7 @@
       <c r="F43" s="0" t="n">
         <v>27.0</v>
       </c>
-      <c r="G43" s="4" t="n">
+      <c r="G43" s="1" t="n">
         <v>303172.937613</v>
       </c>
     </row>
@@ -1398,7 +1395,7 @@
       <c r="F44" s="0" t="n">
         <v>40.0</v>
       </c>
-      <c r="G44" s="4" t="n">
+      <c r="G44" s="1" t="n">
         <v>588579.6</v>
       </c>
     </row>
@@ -1421,7 +1418,7 @@
       <c r="F45" s="0" t="n">
         <v>34.0</v>
       </c>
-      <c r="G45" s="4" t="n">
+      <c r="G45" s="1" t="n">
         <v>500292.66000000003</v>
       </c>
     </row>
@@ -1444,7 +1441,7 @@
       <c r="F46" s="0" t="n">
         <v>28.0</v>
       </c>
-      <c r="G46" s="4" t="n">
+      <c r="G46" s="1" t="n">
         <v>412005.72000000003</v>
       </c>
     </row>
@@ -1467,7 +1464,7 @@
       <c r="F47" s="0" t="n">
         <v>25.0</v>
       </c>
-      <c r="G47" s="4" t="n">
+      <c r="G47" s="1" t="n">
         <v>311616.111975</v>
       </c>
     </row>
@@ -1490,7 +1487,7 @@
       <c r="F48" s="0" t="n">
         <v>48.0</v>
       </c>
-      <c r="G48" s="4" t="n">
+      <c r="G48" s="1" t="n">
         <v>706295.52</v>
       </c>
     </row>
@@ -1513,7 +1510,7 @@
       <c r="F49" s="0" t="n">
         <v>41.0</v>
       </c>
-      <c r="G49" s="4" t="n">
+      <c r="G49" s="1" t="n">
         <v>524202.234801</v>
       </c>
     </row>
@@ -1536,7 +1533,7 @@
       <c r="F50" s="0" t="n">
         <v>37.0</v>
       </c>
-      <c r="G50" s="4" t="n">
+      <c r="G50" s="1" t="n">
         <v>544436.13</v>
       </c>
     </row>
@@ -1559,7 +1556,7 @@
       <c r="F51" s="0" t="n">
         <v>24.0</v>
       </c>
-      <c r="G51" s="4" t="n">
+      <c r="G51" s="1" t="n">
         <v>206873.957808</v>
       </c>
     </row>
@@ -1582,7 +1579,7 @@
       <c r="F52" s="0" t="n">
         <v>44.0</v>
       </c>
-      <c r="G52" s="4" t="n">
+      <c r="G52" s="1" t="n">
         <v>647437.56</v>
       </c>
     </row>
@@ -1605,7 +1602,7 @@
       <c r="F53" s="0" t="n">
         <v>15.0</v>
       </c>
-      <c r="G53" s="4" t="n">
+      <c r="G53" s="1" t="n">
         <v>81510.91735500001</v>
       </c>
     </row>
